--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1002.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1002.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.228829917788929</v>
+        <v>1.650236010551453</v>
       </c>
       <c r="B1">
-        <v>2.57477192822784</v>
+        <v>1.658631682395935</v>
       </c>
       <c r="C1">
-        <v>4.684102709716361</v>
+        <v>1.785469651222229</v>
       </c>
       <c r="D1">
-        <v>2.301528540577483</v>
+        <v>2.554950952529907</v>
       </c>
       <c r="E1">
-        <v>0.9748522726490316</v>
+        <v>2.865405559539795</v>
       </c>
     </row>
   </sheetData>
